--- a/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/informations_on_Dialogues.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/informations_on_Dialogues.xlsx
@@ -448,7 +448,7 @@
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/informations_on_Dialogues.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/informations_on_Dialogues.xlsx
@@ -131,12 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +442,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +473,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/informations_on_Dialogues.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/informations_on_Dialogues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="10515" windowHeight="5790"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="10515" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Id crowdflower</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Jiliya, Samura</t>
+  </si>
+  <si>
+    <t>Da/S2</t>
+  </si>
+  <si>
+    <t>Da/S3</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,30 +530,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>958792</v>
+        <v>958790</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>958790</v>
+        <v>958792</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,6 +582,28 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>959199</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>959200</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/informations_on_Dialogues.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/informations_on_Dialogues.xlsx
@@ -72,7 +72,7 @@
     <t>Da/S2</t>
   </si>
   <si>
-    <t>Da/S3</t>
+    <t>S2/Da</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
